--- a/data/trans_camb/P23_9_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P23_9_R-Estudios-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-5,42</t>
+          <t>8,77</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-9,97</t>
+          <t>-1,48</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>8,93</t>
+          <t>-3,95</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3,63</t>
+          <t>11,68</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>2,27</t>
+          <t>1,9</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-2,45</t>
+          <t>6,81</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>10,37</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>0,16</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>1,44</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-28,95; 10,2</t>
+          <t>-11,56; 30,92</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-33,78; 4,77</t>
+          <t>-17,5; 16,4</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,51; 21,94</t>
+          <t>-22,82; 14,39</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-10,4; 14,94</t>
+          <t>-8,21; 28,55</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-9,7; 11,3</t>
+          <t>-14,28; 21,72</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-14,7; 7,09</t>
+          <t>-13,23; 25,68</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-5,72; 25,3</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-13,58; 13,17</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-14,29; 15,86</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-19,52%</t>
+          <t>51,92%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-35,86%</t>
+          <t>-8,78%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>44,31%</t>
+          <t>-23,37%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>18,01%</t>
+          <t>43,9%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>9,6%</t>
+          <t>7,13%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-10,37%</t>
+          <t>25,61%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>47,18%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0,72%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>6,54%</t>
         </is>
       </c>
     </row>
@@ -715,32 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-66,95; 59,87</t>
+          <t>-47,03; 324,73</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-75,3; 28,69</t>
+          <t>-70,59; 189,88</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-11,5; 147,29</t>
+          <t>-82,05; 146,08</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-39,32; 99,39</t>
+          <t>-23,52; 162,98</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-33,68; 60,53</t>
+          <t>-43,93; 130,08</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-49,08; 37,11</t>
+          <t>-40,21; 141,8</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-20,16; 162,35</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-46,99; 86,67</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-49,61; 99,29</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,6</t>
+          <t>6,42</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,23</t>
+          <t>5,23</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,83</t>
+          <t>-0,19</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,99</t>
+          <t>5,31</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>3,22</t>
+          <t>1,86</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,58</t>
+          <t>0,17</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>5,86</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>3,6</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-0,01</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,1; 8,19</t>
+          <t>-2,48; 19,19</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,96; 10,22</t>
+          <t>-3,88; 18,5</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 12,66</t>
+          <t>-7,87; 8,52</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,68; 9,11</t>
+          <t>-2,2; 13,41</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 8,1</t>
+          <t>-5,24; 9,13</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,47; 7,38</t>
+          <t>-6,88; 8,35</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>0,27; 12,99</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-2,49; 11,23</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-5,64; 5,84</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>4,1%</t>
+          <t>50,22%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,6%</t>
+          <t>40,96%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>41,99%</t>
+          <t>-1,46%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>21,53%</t>
+          <t>41,31%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>22,6%</t>
+          <t>14,5%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>11,08%</t>
+          <t>1,29%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>45,72%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>28,06%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>-0,11%</t>
         </is>
       </c>
     </row>
@@ -871,32 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-37,52; 72,57</t>
+          <t>-20,53; 219,81</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-45,77; 90,62</t>
+          <t>-29,56; 194,95</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,73; 114,49</t>
+          <t>-49,07; 92,91</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-16,23; 83,4</t>
+          <t>-12,46; 150,44</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-8,42; 69,28</t>
+          <t>-32,56; 93,38</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-21,31; 62,2</t>
+          <t>-43,35; 91,94</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>0,24; 122,77</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-16,71; 105,15</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-35,84; 56,53</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>6,99</t>
+          <t>10,45</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>4,21</t>
+          <t>4,14</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,73</t>
+          <t>1,14</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>10,3</t>
+          <t>1,04</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>3,63</t>
+          <t>9,54</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>7,34</t>
+          <t>-7,45</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>5,24</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>7,01</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-3,56</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,28; 15,0</t>
+          <t>1,7; 21,56</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 10,31</t>
+          <t>-3,83; 12,01</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,49; 7,32</t>
+          <t>-7,15; 9,13</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,45; 17,91</t>
+          <t>-8,06; 7,66</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 8,81</t>
+          <t>0,4; 17,73</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,99; 12,5</t>
+          <t>-14,7; -0,91</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-0,38; 12,22</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0,93; 13,86</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-9,35; 1,65</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>66,71%</t>
+          <t>95,84%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>40,14%</t>
+          <t>37,94%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>4,71%</t>
+          <t>10,47%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>65,97%</t>
+          <t>7,06%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>27,44%</t>
+          <t>64,56%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>55,43%</t>
+          <t>-50,46%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>40,07%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>53,61%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>-27,24%</t>
         </is>
       </c>
     </row>
@@ -1027,39 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 187,03</t>
+          <t>7,69; 303,62</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-16,69; 136,56</t>
+          <t>-27,78; 167,55</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-30,17; 58,13</t>
+          <t>-50,96; 128,55</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>11,84; 146,7</t>
+          <t>-41,59; 68,9</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-6,85; 78,6</t>
+          <t>0,32; 163,22</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>18,79; 114,64</t>
+          <t>-77,54; -5,53</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-4,71; 122,17</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>5,2; 133,22</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-56,11; 19,8</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,56</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,21</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>4,47</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>5,61</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>3,06</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>2,75</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,95; 7,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,89; 6,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,2; 8,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,27; 9,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,55; 6,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 6,43</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>10,1%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-1,34%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>28,65%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>35,96%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>19,66%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>17,66%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1183,43 +1439,282 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-21,66; 61,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-31,54; 50,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1,36; 65,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>6,66; 71,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-3,87; 47,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-6,82; 45,17</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>8,2</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>3,94</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-0,19</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>4,44</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>5,04</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-1,16</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>6,19</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>4,43</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>-0,76</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>2,23; 16,21</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-2,01; 11,92</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-5,97; 5,32</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-1,19; 10,11</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-0,86; 10,38</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-6,43; 4,29</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>2,09; 10,87</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>0,1; 9,38</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-4,87; 2,99</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>64,78%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>31,09%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-1,53%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>28,61%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>32,47%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-7,46%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>43,64%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>31,19%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>-5,33%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>12,87; 157,83</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-15,65; 109,8</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-39,07; 49,08</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-7,63; 75,24</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-4,46; 81,78</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-36,22; 32,57</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>12,81; 89,45</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-0,42; 73,5</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-29,76; 24,58</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
